--- a/02_c_AnalisisCandidatos.xlsx
+++ b/02_c_AnalisisCandidatos.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A0E05-2896-4DBC-946F-3300BBE69DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B857059B-7001-4F1E-A853-A2AC5109DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wqLIKBAZuQ58CMIedDe48+dugjzEHpxEMevoNBnCwO3uCjCk0ckbLtOnGv3phEkdbnc9H0YSTuJy0CWfcEjP9g==" workbookSaltValue="DbZvx38fgQwLlvCPFeAnYg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
